--- a/src/test/resources/DataIn/Elements.xlsx
+++ b/src/test/resources/DataIn/Elements.xlsx
@@ -5,11 +5,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="7110" tabRatio="500"/>
+    <workbookView windowWidth="19650" windowHeight="7065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="URL_List" sheetId="2" r:id="rId2"/>
+    <sheet name="Flights" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:B4"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>URL:</t>
   </si>
@@ -28,13 +29,49 @@
     <t>Element Name:</t>
   </si>
   <si>
-    <t>Menu-account-id</t>
+    <t>menu-account-id</t>
+  </si>
+  <si>
+    <t>menu-property-id</t>
+  </si>
+  <si>
+    <t>menu-list-xp</t>
+  </si>
+  <si>
+    <t>menu-trips-xp</t>
+  </si>
+  <si>
+    <t>menu-support-id</t>
+  </si>
+  <si>
+    <t>menu-languageES-id</t>
+  </si>
+  <si>
+    <t>menu-languageCH-id</t>
   </si>
   <si>
     <t>Element Value:</t>
   </si>
   <si>
-    <t>Header-account-menu</t>
+    <t>header-account-menu</t>
+  </si>
+  <si>
+    <t>header-partner-add-hotel-container</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'My Lists')]</t>
+  </si>
+  <si>
+    <t>//a[@id='header-itineraries']</t>
+  </si>
+  <si>
+    <t>header-support-menu</t>
+  </si>
+  <si>
+    <t>header-language-2058</t>
+  </si>
+  <si>
+    <t>header-language-2052</t>
   </si>
   <si>
     <t>Data:</t>
@@ -43,6 +80,24 @@
     <t>Account</t>
   </si>
   <si>
+    <t>Add your property</t>
+  </si>
+  <si>
+    <t>My Lists</t>
+  </si>
+  <si>
+    <t>My Trips</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
     <t>No.</t>
   </si>
   <si>
@@ -53,6 +108,78 @@
   </si>
   <si>
     <t>http://intranet.sutrix.com</t>
+  </si>
+  <si>
+    <t>btn-flights-xp</t>
+  </si>
+  <si>
+    <t>btn-Roundtrip-xp</t>
+  </si>
+  <si>
+    <t>btn-Oneway-xp</t>
+  </si>
+  <si>
+    <t>btn-MultiCity-xp</t>
+  </si>
+  <si>
+    <t>txt-FlightFrom-xp</t>
+  </si>
+  <si>
+    <t>btn-FlightFrom-xp</t>
+  </si>
+  <si>
+    <t>txt-FlightTo-xp</t>
+  </si>
+  <si>
+    <t>btn-FlightTo-xp</t>
+  </si>
+  <si>
+    <t>btn-AddHotel-xp</t>
+  </si>
+  <si>
+    <t>btn-AddCar-xp</t>
+  </si>
+  <si>
+    <t>btn-search-id</t>
+  </si>
+  <si>
+    <t>//button[@id='tab-flight-tab-hp']</t>
+  </si>
+  <si>
+    <t>//label[@id='flight-type-roundtrip-label-hp-flight']</t>
+  </si>
+  <si>
+    <t>//label[@id='flight-type-one-way-label-hp-flight']</t>
+  </si>
+  <si>
+    <t>//label[@id='flight-type-multi-dest-label-hp-flight']</t>
+  </si>
+  <si>
+    <t>//input[@id='flight-origin-hp-flight']</t>
+  </si>
+  <si>
+    <t>//a[@id='aria-option-0']</t>
+  </si>
+  <si>
+    <t>//input[@id='flight-destination-hp-flight']</t>
+  </si>
+  <si>
+    <t>//a[@id='aria-option-2']</t>
+  </si>
+  <si>
+    <t>//input[@id='flight-add-hotel-checkbox-hp-flight']</t>
+  </si>
+  <si>
+    <t>//input[@id='flight-add-car-checkbox-hp-flight']</t>
+  </si>
+  <si>
+    <t>search-button-hp-package</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh City</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
   </si>
 </sst>
 </file>
@@ -65,7 +192,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -79,19 +206,51 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,16 +265,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,58 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -189,45 +289,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +393,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00A65D"/>
         <bgColor rgb="FF008080"/>
       </patternFill>
@@ -261,8 +411,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF72BF44"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -273,25 +423,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,151 +591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,30 +602,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,8 +623,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,30 +685,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -558,153 +693,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,55 +1239,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="18.4666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.2761904761905" customWidth="1"/>
-    <col min="4" max="1025" width="11.5238095238095"/>
+    <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="32.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="26.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="25.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="20.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="19.8571428571429" customWidth="1"/>
+    <col min="9" max="1025" width="11.5238095238095"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
+    <row r="3" s="9" customFormat="1" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://www.expedia.com/"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.expedia.com/" tooltip="https://www.expedia.com/"/>
   </hyperlinks>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1168,19 +1374,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1197,8 +1403,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1213,4 +1419,132 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="26.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="39.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="28.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="21.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="32.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="21.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="39.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="38.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="27.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.expedia.com/" tooltip="https://www.expedia.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/DataIn/Elements.xlsx
+++ b/src/test/resources/DataIn/Elements.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="7065" tabRatio="500"/>
+    <workbookView windowWidth="13035" windowHeight="4860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="URL_List" sheetId="2" r:id="rId2"/>
-    <sheet name="Flights" sheetId="3" r:id="rId3"/>
+    <sheet name="Flights_Search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:B4"/>
+  <oleSize ref="E1:F4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>URL:</t>
   </si>
@@ -125,19 +125,19 @@
     <t>txt-FlightFrom-xp</t>
   </si>
   <si>
-    <t>btn-FlightFrom-xp</t>
+    <t>ddl-FlightFrom-xp</t>
   </si>
   <si>
     <t>txt-FlightTo-xp</t>
   </si>
   <si>
-    <t>btn-FlightTo-xp</t>
-  </si>
-  <si>
-    <t>btn-AddHotel-xp</t>
-  </si>
-  <si>
-    <t>btn-AddCar-xp</t>
+    <t>ddl-FlightTo-xp</t>
+  </si>
+  <si>
+    <t>chk-AddHotel-xp</t>
+  </si>
+  <si>
+    <t>chk-AddCar-xp</t>
   </si>
   <si>
     <t>btn-search-id</t>
@@ -158,15 +158,12 @@
     <t>//input[@id='flight-origin-hp-flight']</t>
   </si>
   <si>
-    <t>//a[@id='aria-option-0']</t>
+    <t>//ul[@id='typeaheadDataPlain']</t>
   </si>
   <si>
     <t>//input[@id='flight-destination-hp-flight']</t>
   </si>
   <si>
-    <t>//a[@id='aria-option-2']</t>
-  </si>
-  <si>
     <t>//input[@id='flight-add-hotel-checkbox-hp-flight']</t>
   </si>
   <si>
@@ -179,7 +176,13 @@
     <t>Ho Chi Minh City</t>
   </si>
   <si>
+    <t>Tan Son Nhat Intl</t>
+  </si>
+  <si>
     <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Noi Bai Intl</t>
   </si>
 </sst>
 </file>
@@ -187,8 +190,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -211,9 +214,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Consolas"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
@@ -233,6 +236,103 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -241,38 +341,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -287,98 +357,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,187 +414,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,16 +609,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,40 +648,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,15 +676,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -713,130 +716,130 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,8 +1244,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1426,8 +1429,8 @@
   <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -1437,12 +1440,12 @@
     <col min="3" max="4" width="39.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="28.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="21.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="27.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="32.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="21.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="25.7142857142857" customWidth="1"/>
     <col min="10" max="10" width="39.5714285714286" customWidth="1"/>
     <col min="11" max="11" width="38.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="27.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="22.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1517,27 +1520,33 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>49</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
         <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/DataIn/Elements.xlsx
+++ b/src/test/resources/DataIn/Elements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="13035" windowHeight="4860" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="14055" windowHeight="7200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Flights_Search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="E1:F4"/>
+  <oleSize ref="G1:H4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>URL:</t>
   </si>
@@ -143,6 +143,15 @@
     <t>btn-search-id</t>
   </si>
   <si>
+    <t>txt-departing-xp</t>
+  </si>
+  <si>
+    <t>btn-daypicker-xp</t>
+  </si>
+  <si>
+    <t>txt-returning-id</t>
+  </si>
+  <si>
     <t>//button[@id='tab-flight-tab-hp']</t>
   </si>
   <si>
@@ -171,6 +180,18 @@
   </si>
   <si>
     <t>search-button-hp-package</t>
+  </si>
+  <si>
+    <t>//input[@id='flight-departing-hp-flight']</t>
+  </si>
+  <si>
+    <t>//div[@id='flight-departing-wrapper-hp-flight']/div/div/div[2]/table/tbody</t>
+  </si>
+  <si>
+    <t>flight-returning-hp-flight</t>
+  </si>
+  <si>
+    <t>//div[@id='flight-returning-wrapper-hp-flight']/div/div/div[2]/table/tbody</t>
   </si>
   <si>
     <t>Ho Chi Minh City</t>
@@ -190,12 +211,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -220,6 +241,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -231,15 +258,77 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,6 +340,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -260,53 +386,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,80 +401,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -402,14 +435,158 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB94D"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00A65D"/>
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDB94D"/>
-        <bgColor rgb="FFFFCC00"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -420,181 +597,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,21 +644,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -647,21 +671,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -682,15 +691,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -705,156 +705,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,67 +1305,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="11" customFormat="1" spans="1:8">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="12" customFormat="1" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -1343,7 +1386,7 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1377,10 +1420,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1388,7 +1431,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1406,7 +1449,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1427,127 +1470,143 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="26.2857142857143" customWidth="1"/>
-    <col min="3" max="4" width="39.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="28.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="27.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="32.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="25.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="39.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="38.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="22.5714285714286" customWidth="1"/>
+    <col min="2" max="14" width="11.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="M4" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/DataIn/Elements.xlsx
+++ b/src/test/resources/DataIn/Elements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="14055" windowHeight="7200" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="21255" windowHeight="12195" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Flights_Search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="G1:H4"/>
+  <oleSize ref="O1:P4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>URL:</t>
   </si>
@@ -140,7 +140,7 @@
     <t>chk-AddCar-xp</t>
   </si>
   <si>
-    <t>btn-search-id</t>
+    <t>btn-search-xp</t>
   </si>
   <si>
     <t>txt-departing-xp</t>
@@ -152,6 +152,39 @@
     <t>txt-returning-id</t>
   </si>
   <si>
+    <t>btn-travelers-xp</t>
+  </si>
+  <si>
+    <t>btn-children-xp</t>
+  </si>
+  <si>
+    <t>btn-infants-xp</t>
+  </si>
+  <si>
+    <t>ddl-age1-id</t>
+  </si>
+  <si>
+    <t>ddl-age2-id</t>
+  </si>
+  <si>
+    <t>ddl-infantsAge-xp</t>
+  </si>
+  <si>
+    <t>btn-close-xp</t>
+  </si>
+  <si>
+    <t>txt-departResult-id</t>
+  </si>
+  <si>
+    <t>txt-returnResult-id</t>
+  </si>
+  <si>
+    <t>txt-departDay1-id</t>
+  </si>
+  <si>
+    <t>txt-returnDay-id</t>
+  </si>
+  <si>
     <t>//button[@id='tab-flight-tab-hp']</t>
   </si>
   <si>
@@ -179,7 +212,7 @@
     <t>//input[@id='flight-add-car-checkbox-hp-flight']</t>
   </si>
   <si>
-    <t>search-button-hp-package</t>
+    <t>//form[@id='gcw-flights-form-hp-flight']/div[8]/label/button</t>
   </si>
   <si>
     <t>//input[@id='flight-departing-hp-flight']</t>
@@ -194,6 +227,39 @@
     <t>//div[@id='flight-returning-wrapper-hp-flight']/div/div/div[2]/table/tbody</t>
   </si>
   <si>
+    <t>//form[@id='gcw-flights-form-hp-flight']/fieldset[2]/div/div[4]/div/div/ul/li/button</t>
+  </si>
+  <si>
+    <t>//form[@id='gcw-flights-form-hp-flight']/fieldset[2]/div/div[4]/div/div/ul/li/div/div/div/div[2]/div[1]/div[4]/button</t>
+  </si>
+  <si>
+    <t>//form[@id='gcw-flights-form-hp-flight']/fieldset[2]/div/div[4]/div/div/ul/li/div/div/div/div[3]/div[1]/div[4]/button</t>
+  </si>
+  <si>
+    <t>flight-age-select-1-hp-flight</t>
+  </si>
+  <si>
+    <t>flight-age-select-2-hp-flight</t>
+  </si>
+  <si>
+    <t>//form[@id='gcw-flights-form-hp-flight']/fieldset[2]/div/div[4]/div/div/ul/li/div/div/div/div[3]/div[2]/label[1]/select</t>
+  </si>
+  <si>
+    <t>//form[@id='gcw-flights-form-hp-flight']/fieldset[2]/div/div[4]/div/div/ul/li/div/footer/div/button</t>
+  </si>
+  <si>
+    <t>departure-airport-1</t>
+  </si>
+  <si>
+    <t>arrival-airport-1</t>
+  </si>
+  <si>
+    <t>departure-date-1</t>
+  </si>
+  <si>
+    <t>return-date-1</t>
+  </si>
+  <si>
     <t>Ho Chi Minh City</t>
   </si>
   <si>
@@ -204,6 +270,18 @@
   </si>
   <si>
     <t>Noi Bai Intl</t>
+  </si>
+  <si>
+    <t>Ho Chi Minh City, Vietnam (SGN)</t>
+  </si>
+  <si>
+    <t>Hanoi, Vietnam (HAN)</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
   </si>
 </sst>
 </file>
@@ -211,10 +289,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -258,8 +336,43 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,22 +387,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,25 +432,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -332,6 +456,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -341,28 +472,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -371,44 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,187 +531,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,30 +722,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -686,21 +740,36 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -722,16 +791,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,142 +825,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -893,11 +971,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,55 +1392,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:8">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="12" customFormat="1" spans="1:8">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" spans="1:8">
+    <row r="3" s="13" customFormat="1" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1386,7 +1466,7 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1431,7 +1511,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1449,7 +1529,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1470,16 +1550,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
     <col min="2" max="14" width="11.4285714285714" customWidth="1"/>
+    <col min="22" max="22" width="8.85714285714286" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1490,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+    <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1539,74 +1621,152 @@
       <c r="P2" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:27">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:27">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="M4" s="9"/>
+      <c r="X4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/DataIn/Elements.xlsx
+++ b/src/test/resources/DataIn/Elements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="12195" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Flights_Search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="O1:P4"/>
+  <oleSize ref="K1:L4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>URL:</t>
   </si>
@@ -212,7 +212,7 @@
     <t>//input[@id='flight-add-car-checkbox-hp-flight']</t>
   </si>
   <si>
-    <t>//form[@id='gcw-flights-form-hp-flight']/div[8]/label/button</t>
+    <t>//form[@id='gcw-flights-form-hp-flight']//button[@class='btn-primary btn-action gcw-submit']</t>
   </si>
   <si>
     <t>//input[@id='flight-departing-hp-flight']</t>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Noi Bai Intl</t>
+  </si>
+  <si>
+    <t>"6"</t>
   </si>
   <si>
     <t>Ho Chi Minh City, Vietnam (SGN)</t>
@@ -336,13 +339,149 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,142 +494,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -531,61 +534,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,121 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,26 +725,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -760,6 +743,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,21 +778,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,8 +800,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,146 +820,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1552,8 +1555,8 @@
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -1755,17 +1758,20 @@
         <v>83</v>
       </c>
       <c r="M4" s="9"/>
+      <c r="T4" t="s">
+        <v>84</v>
+      </c>
       <c r="X4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z4" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/DataIn/Elements.xlsx
+++ b/src/test/resources/DataIn/Elements.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="URL_List" sheetId="2" r:id="rId2"/>
     <sheet name="Flights_Search" sheetId="3" r:id="rId3"/>
+    <sheet name="Verify_Departing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="K1:L4"/>
+  <oleSize ref="C1:D4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>URL:</t>
   </si>
@@ -285,6 +286,18 @@
   </si>
   <si>
     <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>txt-header1-xp</t>
+  </si>
+  <si>
+    <t>txt-header2-xp</t>
+  </si>
+  <si>
+    <t>//div[@id='package-departing-wrapper-hp-package']//div[2]/table/caption</t>
+  </si>
+  <si>
+    <t>//div[@id='package-departing-wrapper-hp-package']//div[3]/table/caption</t>
   </si>
 </sst>
 </file>
@@ -292,12 +305,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -316,6 +329,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -339,6 +358,57 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -347,9 +417,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -360,27 +441,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -397,22 +457,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,7 +486,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,62 +507,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,12 +523,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF72BF44"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
@@ -522,6 +535,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDB94D"/>
         <bgColor rgb="FFFFCC00"/>
       </patternFill>
@@ -540,19 +559,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,157 +661,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +744,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -739,21 +769,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,6 +798,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -796,190 +844,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1388,67 +1408,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" spans="1:8">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="13" customFormat="1" spans="1:8">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" spans="1:8">
+    <row r="3" s="14" customFormat="1" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -1469,7 +1489,7 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1503,10 +1523,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1514,7 +1534,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1532,7 +1552,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1555,8 +1575,8 @@
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -1568,93 +1588,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:27">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1692,10 +1712,10 @@
       <c r="K3" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>65</v>
       </c>
       <c r="N3" t="s">
@@ -1742,7 +1762,7 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
@@ -1757,7 +1777,7 @@
       <c r="I4" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="10"/>
       <c r="T4" t="s">
         <v>84</v>
       </c>
@@ -1767,11 +1787,75 @@
       <c r="Y4" t="s">
         <v>86</v>
       </c>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA4" s="17" t="s">
         <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.expedia.com/" tooltip="https://www.expedia.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/DataIn/Elements.xlsx
+++ b/src/test/resources/DataIn/Elements.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="URL_List" sheetId="2" r:id="rId2"/>
     <sheet name="Flights_Search" sheetId="3" r:id="rId3"/>
     <sheet name="Verify_Departing" sheetId="4" r:id="rId4"/>
+    <sheet name="Limo_Register" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="C1:D4"/>
+  <oleSize ref="U1:V4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>URL:</t>
   </si>
@@ -298,6 +299,180 @@
   </si>
   <si>
     <t>//div[@id='package-departing-wrapper-hp-package']//div[3]/table/caption</t>
+  </si>
+  <si>
+    <t>http://limo-test.local.sutrix.com/</t>
+  </si>
+  <si>
+    <t>register-btn-xp</t>
+  </si>
+  <si>
+    <t>avatar-btn-id</t>
+  </si>
+  <si>
+    <t>email-txt-id</t>
+  </si>
+  <si>
+    <t>password-txt-id</t>
+  </si>
+  <si>
+    <t>passwordRe-txt-id</t>
+  </si>
+  <si>
+    <t>accRole-ddl-id</t>
+  </si>
+  <si>
+    <t>titleMr-chk-id</t>
+  </si>
+  <si>
+    <t>titleMs-chk-xp</t>
+  </si>
+  <si>
+    <t>first-name-txt-id</t>
+  </si>
+  <si>
+    <t>last-name-txt-id</t>
+  </si>
+  <si>
+    <t>company-name-txt-id</t>
+  </si>
+  <si>
+    <t>1st-phone-txt-id</t>
+  </si>
+  <si>
+    <t>2nd-phone-txt-id</t>
+  </si>
+  <si>
+    <t>cost-center-name-txt-id</t>
+  </si>
+  <si>
+    <t>address-txt-id</t>
+  </si>
+  <si>
+    <t>street-txt-id</t>
+  </si>
+  <si>
+    <t>route-txt-id</t>
+  </si>
+  <si>
+    <t>complement-address-txt-id</t>
+  </si>
+  <si>
+    <t>city-txt-id</t>
+  </si>
+  <si>
+    <t>state-txt-id</t>
+  </si>
+  <si>
+    <t>zipcode-txt-id</t>
+  </si>
+  <si>
+    <t>country-txt-id</t>
+  </si>
+  <si>
+    <t>contact-name-txt-id</t>
+  </si>
+  <si>
+    <t>phone-company-txt-id</t>
+  </si>
+  <si>
+    <t>term-condition-chk-xp</t>
+  </si>
+  <si>
+    <t>term-condition-accept-chk-xp</t>
+  </si>
+  <si>
+    <t>account-register-btn-id</t>
+  </si>
+  <si>
+    <t>email-validate-txt-xp</t>
+  </si>
+  <si>
+    <t>//a[contains(@title,'register')]</t>
+  </si>
+  <si>
+    <t>upload-avatar</t>
+  </si>
+  <si>
+    <t>account_parent_email</t>
+  </si>
+  <si>
+    <t>account_plainPassword_first</t>
+  </si>
+  <si>
+    <t>account_plainPassword_second</t>
+  </si>
+  <si>
+    <t>account_roles_0</t>
+  </si>
+  <si>
+    <t>account_parent_title_0</t>
+  </si>
+  <si>
+    <t>//label[contains(@for,'account_parent_title_1')]</t>
+  </si>
+  <si>
+    <t>account_parent_firstName</t>
+  </si>
+  <si>
+    <t>account_parent_lastName</t>
+  </si>
+  <si>
+    <t>company-name</t>
+  </si>
+  <si>
+    <t>account_parent_phone</t>
+  </si>
+  <si>
+    <t>account_parent_phone2</t>
+  </si>
+  <si>
+    <t>cost-center-name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>street-number</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>complement-address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>contact-name</t>
+  </si>
+  <si>
+    <t>phone-company</t>
+  </si>
+  <si>
+    <t>//input[@id='term-condition']/../label</t>
+  </si>
+  <si>
+    <t>//div[@id='privacy-popup']//button[@class='btn btn--cta-1 btn--medium']</t>
+  </si>
+  <si>
+    <t>account_register</t>
+  </si>
+  <si>
+    <t>//ul[@id='parsley-id-6']/li</t>
+  </si>
+  <si>
+    <t>This value is required.</t>
   </si>
 </sst>
 </file>
@@ -323,6 +498,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
@@ -356,6 +539,115 @@
       <sz val="10"/>
       <name val="SimSun"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -366,26 +658,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -396,22 +668,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,94 +682,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -535,24 +710,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFDB94D"/>
         <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00A65D"/>
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -577,7 +776,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,151 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,17 +919,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -830,6 +994,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -847,159 +1022,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1411,64 +1587,64 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" spans="1:8">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="14" customFormat="1" spans="1:8">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="15" customFormat="1" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
@@ -1489,7 +1665,7 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1523,10 +1699,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1534,7 +1710,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1552,7 +1728,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1591,95 +1767,95 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:27">
+    <row r="2" s="7" customFormat="1" spans="1:27">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -1712,10 +1888,10 @@
       <c r="K3" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>65</v>
       </c>
       <c r="N3" t="s">
@@ -1762,7 +1938,7 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
@@ -1777,7 +1953,7 @@
       <c r="I4" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="10"/>
+      <c r="M4" s="11"/>
       <c r="T4" t="s">
         <v>84</v>
       </c>
@@ -1787,10 +1963,10 @@
       <c r="Y4" t="s">
         <v>86</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AA4" s="18" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1808,8 +1984,8 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1821,7 +1997,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1829,7 +2005,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
@@ -1840,10 +2016,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C3" t="s">
@@ -1854,7 +2030,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1865,4 +2041,221 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" t="s">
+        <v>114</v>
+      </c>
+      <c r="W2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" t="s">
+        <v>140</v>
+      </c>
+      <c r="U3" t="s">
+        <v>141</v>
+      </c>
+      <c r="V3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://limo-test.local.sutrix.com/" tooltip="http://limo-test.local.sutrix.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/DataIn/Elements.xlsx
+++ b/src/test/resources/DataIn/Elements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500" activeTab="4"/>
+    <workbookView windowWidth="19095" windowHeight="12210" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Limo_Register" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="U1:V4"/>
+  <oleSize ref="A1:B4"/>
 </workbook>
 </file>
 
@@ -480,10 +480,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -541,11 +541,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -556,22 +554,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -582,6 +583,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -590,6 +598,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -605,89 +682,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -728,187 +728,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,21 +919,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -961,6 +946,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -979,181 +1014,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,8 +1751,8 @@
   <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -2048,8 +2048,8 @@
   <sheetPr/>
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
